--- a/7/1/1/4/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/1/Series desestacionalizadas 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>Serie</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4524,7 +4527,7 @@
         <v>70</v>
       </c>
       <c r="B50">
-        <v>21710</v>
+        <v>21711</v>
       </c>
       <c r="C50">
         <v>16156</v>
@@ -4539,46 +4542,46 @@
         <v>5778</v>
       </c>
       <c r="G50">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="H50">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="I50">
-        <v>5567</v>
+        <v>5568</v>
       </c>
       <c r="J50">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="K50">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="L50">
         <v>-13</v>
       </c>
       <c r="M50">
-        <v>10399</v>
+        <v>10397</v>
       </c>
       <c r="N50">
-        <v>9054</v>
+        <v>9052</v>
       </c>
       <c r="O50">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P50">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="Q50">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="R50">
         <v>1345</v>
       </c>
       <c r="S50">
-        <v>7951</v>
+        <v>7954</v>
       </c>
       <c r="T50">
-        <v>6973</v>
+        <v>6976</v>
       </c>
       <c r="U50">
         <v>141</v>
@@ -4587,13 +4590,13 @@
         <v>1133</v>
       </c>
       <c r="W50">
-        <v>5699</v>
+        <v>5702</v>
       </c>
       <c r="X50">
         <v>979</v>
       </c>
       <c r="Y50">
-        <v>24158</v>
+        <v>24154</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4601,7 +4604,7 @@
         <v>71</v>
       </c>
       <c r="B51">
-        <v>22878</v>
+        <v>22881</v>
       </c>
       <c r="C51">
         <v>16561</v>
@@ -4622,22 +4625,22 @@
         <v>2544</v>
       </c>
       <c r="I51">
-        <v>5999</v>
+        <v>5998</v>
       </c>
       <c r="J51">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="K51">
         <v>2173</v>
       </c>
       <c r="L51">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M51">
-        <v>9874</v>
+        <v>9872</v>
       </c>
       <c r="N51">
-        <v>8494</v>
+        <v>8492</v>
       </c>
       <c r="O51">
         <v>472</v>
@@ -4646,16 +4649,16 @@
         <v>4861</v>
       </c>
       <c r="Q51">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="R51">
         <v>1380</v>
       </c>
       <c r="S51">
-        <v>8847</v>
+        <v>8844</v>
       </c>
       <c r="T51">
-        <v>7814</v>
+        <v>7812</v>
       </c>
       <c r="U51">
         <v>154</v>
@@ -4664,13 +4667,13 @@
         <v>1262</v>
       </c>
       <c r="W51">
-        <v>6399</v>
+        <v>6396</v>
       </c>
       <c r="X51">
         <v>1033</v>
       </c>
       <c r="Y51">
-        <v>23905</v>
+        <v>23908</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4678,7 +4681,7 @@
         <v>72</v>
       </c>
       <c r="B52">
-        <v>23372</v>
+        <v>23365</v>
       </c>
       <c r="C52">
         <v>16871</v>
@@ -4702,37 +4705,37 @@
         <v>6174</v>
       </c>
       <c r="J52">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="K52">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="L52">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M52">
-        <v>9566</v>
+        <v>9568</v>
       </c>
       <c r="N52">
-        <v>8034</v>
+        <v>8036</v>
       </c>
       <c r="O52">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P52">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="Q52">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="R52">
         <v>1532</v>
       </c>
       <c r="S52">
-        <v>9926</v>
+        <v>9924</v>
       </c>
       <c r="T52">
-        <v>8832</v>
+        <v>8831</v>
       </c>
       <c r="U52">
         <v>199</v>
@@ -4741,13 +4744,13 @@
         <v>1523</v>
       </c>
       <c r="W52">
-        <v>7110</v>
+        <v>7109</v>
       </c>
       <c r="X52">
         <v>1094</v>
       </c>
       <c r="Y52">
-        <v>23012</v>
+        <v>23008</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4755,13 +4758,13 @@
         <v>73</v>
       </c>
       <c r="B53">
-        <v>23858</v>
+        <v>23850</v>
       </c>
       <c r="C53">
         <v>17165</v>
       </c>
       <c r="D53">
-        <v>14472</v>
+        <v>14473</v>
       </c>
       <c r="E53">
         <v>1131</v>
@@ -4773,25 +4776,25 @@
         <v>7051</v>
       </c>
       <c r="H53">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="I53">
-        <v>6189</v>
+        <v>6188</v>
       </c>
       <c r="J53">
         <v>3873</v>
       </c>
       <c r="K53">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="L53">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M53">
-        <v>9188</v>
+        <v>9192</v>
       </c>
       <c r="N53">
-        <v>7389</v>
+        <v>7394</v>
       </c>
       <c r="O53">
         <v>605</v>
@@ -4800,16 +4803,16 @@
         <v>2992</v>
       </c>
       <c r="Q53">
-        <v>3793</v>
+        <v>3797</v>
       </c>
       <c r="R53">
         <v>1798</v>
       </c>
       <c r="S53">
-        <v>10222</v>
+        <v>10223</v>
       </c>
       <c r="T53">
-        <v>8843</v>
+        <v>8844</v>
       </c>
       <c r="U53">
         <v>164</v>
@@ -4824,7 +4827,7 @@
         <v>1379</v>
       </c>
       <c r="Y53">
-        <v>22823</v>
+        <v>22819</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -4832,7 +4835,7 @@
         <v>74</v>
       </c>
       <c r="B54">
-        <v>22126</v>
+        <v>22127</v>
       </c>
       <c r="C54">
         <v>17083</v>
@@ -4844,19 +4847,19 @@
         <v>1008</v>
       </c>
       <c r="F54">
-        <v>6198</v>
+        <v>6199</v>
       </c>
       <c r="G54">
-        <v>6986</v>
+        <v>6985</v>
       </c>
       <c r="H54">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="I54">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="J54">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="K54">
         <v>1959</v>
@@ -4865,28 +4868,28 @@
         <v>-770</v>
       </c>
       <c r="M54">
-        <v>8389</v>
+        <v>8388</v>
       </c>
       <c r="N54">
-        <v>6950</v>
+        <v>6949</v>
       </c>
       <c r="O54">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P54">
         <v>3340</v>
       </c>
       <c r="Q54">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="R54">
         <v>1439</v>
       </c>
       <c r="S54">
-        <v>7409</v>
+        <v>7411</v>
       </c>
       <c r="T54">
-        <v>6227</v>
+        <v>6229</v>
       </c>
       <c r="U54">
         <v>109</v>
@@ -4895,13 +4898,13 @@
         <v>703</v>
       </c>
       <c r="W54">
-        <v>5414</v>
+        <v>5416</v>
       </c>
       <c r="X54">
         <v>1182</v>
       </c>
       <c r="Y54">
-        <v>23107</v>
+        <v>23104</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -4909,7 +4912,7 @@
         <v>75</v>
       </c>
       <c r="B55">
-        <v>21642</v>
+        <v>21647</v>
       </c>
       <c r="C55">
         <v>16855</v>
@@ -4933,37 +4936,37 @@
         <v>5409</v>
       </c>
       <c r="J55">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="K55">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="L55">
-        <v>-622</v>
+        <v>-617</v>
       </c>
       <c r="M55">
-        <v>8538</v>
+        <v>8537</v>
       </c>
       <c r="N55">
-        <v>7309</v>
+        <v>7308</v>
       </c>
       <c r="O55">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P55">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="Q55">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="R55">
         <v>1229</v>
       </c>
       <c r="S55">
-        <v>6579</v>
+        <v>6577</v>
       </c>
       <c r="T55">
-        <v>5447</v>
+        <v>5446</v>
       </c>
       <c r="U55">
         <v>109</v>
@@ -4972,13 +4975,13 @@
         <v>721</v>
       </c>
       <c r="W55">
-        <v>4617</v>
+        <v>4616</v>
       </c>
       <c r="X55">
         <v>1131</v>
       </c>
       <c r="Y55">
-        <v>23602</v>
+        <v>23606</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -4986,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="B56">
-        <v>22083</v>
+        <v>22076</v>
       </c>
       <c r="C56">
         <v>17325</v>
@@ -5010,34 +5013,34 @@
         <v>5263</v>
       </c>
       <c r="J56">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="K56">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="L56">
-        <v>-505</v>
+        <v>-512</v>
       </c>
       <c r="M56">
-        <v>8949</v>
+        <v>8950</v>
       </c>
       <c r="N56">
-        <v>7820</v>
+        <v>7821</v>
       </c>
       <c r="O56">
         <v>518</v>
       </c>
       <c r="P56">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="Q56">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="R56">
         <v>1129</v>
       </c>
       <c r="S56">
-        <v>6764</v>
+        <v>6763</v>
       </c>
       <c r="T56">
         <v>5650</v>
@@ -5055,7 +5058,7 @@
         <v>1113</v>
       </c>
       <c r="Y56">
-        <v>24268</v>
+        <v>24264</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5063,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="B57">
-        <v>23248</v>
+        <v>23239</v>
       </c>
       <c r="C57">
         <v>17575</v>
       </c>
       <c r="D57">
-        <v>14522</v>
+        <v>14523</v>
       </c>
       <c r="E57">
         <v>1098</v>
@@ -5081,34 +5084,34 @@
         <v>7285</v>
       </c>
       <c r="H57">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="I57">
-        <v>5272</v>
+        <v>5271</v>
       </c>
       <c r="J57">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="K57">
         <v>1733</v>
       </c>
       <c r="L57">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M57">
-        <v>9828</v>
+        <v>9832</v>
       </c>
       <c r="N57">
-        <v>8566</v>
+        <v>8569</v>
       </c>
       <c r="O57">
         <v>484</v>
       </c>
       <c r="P57">
-        <v>5323</v>
+        <v>5324</v>
       </c>
       <c r="Q57">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="R57">
         <v>1262</v>
@@ -5132,7 +5135,7 @@
         <v>1095</v>
       </c>
       <c r="Y57">
-        <v>25501</v>
+        <v>25496</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -5143,7 +5146,7 @@
         <v>24412</v>
       </c>
       <c r="C58">
-        <v>18479</v>
+        <v>18478</v>
       </c>
       <c r="D58">
         <v>15182</v>
@@ -5152,49 +5155,49 @@
         <v>1220</v>
       </c>
       <c r="F58">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="G58">
         <v>7530</v>
       </c>
       <c r="H58">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="I58">
-        <v>5596</v>
+        <v>5597</v>
       </c>
       <c r="J58">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="K58">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="L58">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M58">
-        <v>9566</v>
+        <v>9565</v>
       </c>
       <c r="N58">
-        <v>8216</v>
+        <v>8215</v>
       </c>
       <c r="O58">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P58">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="Q58">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="R58">
         <v>1350</v>
       </c>
       <c r="S58">
-        <v>8044</v>
+        <v>8046</v>
       </c>
       <c r="T58">
-        <v>6938</v>
+        <v>6940</v>
       </c>
       <c r="U58">
         <v>95</v>
@@ -5203,13 +5206,13 @@
         <v>817</v>
       </c>
       <c r="W58">
-        <v>6025</v>
+        <v>6027</v>
       </c>
       <c r="X58">
         <v>1107</v>
       </c>
       <c r="Y58">
-        <v>25934</v>
+        <v>25931</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -5217,13 +5220,13 @@
         <v>79</v>
       </c>
       <c r="B59">
-        <v>25644</v>
+        <v>25648</v>
       </c>
       <c r="C59">
         <v>19520</v>
       </c>
       <c r="D59">
-        <v>16207</v>
+        <v>16206</v>
       </c>
       <c r="E59">
         <v>1484</v>
@@ -5241,37 +5244,37 @@
         <v>5952</v>
       </c>
       <c r="J59">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="K59">
         <v>2322</v>
       </c>
       <c r="L59">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M59">
-        <v>10033</v>
+        <v>10031</v>
       </c>
       <c r="N59">
-        <v>8512</v>
+        <v>8511</v>
       </c>
       <c r="O59">
         <v>613</v>
       </c>
       <c r="P59">
-        <v>5168</v>
+        <v>5169</v>
       </c>
       <c r="Q59">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="R59">
         <v>1521</v>
       </c>
       <c r="S59">
-        <v>8675</v>
+        <v>8673</v>
       </c>
       <c r="T59">
-        <v>7489</v>
+        <v>7488</v>
       </c>
       <c r="U59">
         <v>101</v>
@@ -5280,13 +5283,13 @@
         <v>803</v>
       </c>
       <c r="W59">
-        <v>6585</v>
+        <v>6584</v>
       </c>
       <c r="X59">
         <v>1186</v>
       </c>
       <c r="Y59">
-        <v>27002</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5294,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="B60">
-        <v>26379</v>
+        <v>26372</v>
       </c>
       <c r="C60">
         <v>20027</v>
@@ -5321,34 +5324,34 @@
         <v>3842</v>
       </c>
       <c r="K60">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="L60">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M60">
-        <v>11441</v>
+        <v>11443</v>
       </c>
       <c r="N60">
-        <v>9839</v>
+        <v>9841</v>
       </c>
       <c r="O60">
         <v>565</v>
       </c>
       <c r="P60">
-        <v>6241</v>
+        <v>6242</v>
       </c>
       <c r="Q60">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="R60">
         <v>1602</v>
       </c>
       <c r="S60">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="T60">
-        <v>7785</v>
+        <v>7784</v>
       </c>
       <c r="U60">
         <v>105</v>
@@ -5357,13 +5360,13 @@
         <v>902</v>
       </c>
       <c r="W60">
-        <v>6778</v>
+        <v>6777</v>
       </c>
       <c r="X60">
         <v>1231</v>
       </c>
       <c r="Y60">
-        <v>28803</v>
+        <v>28799</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5371,13 +5374,13 @@
         <v>81</v>
       </c>
       <c r="B61">
-        <v>27828</v>
+        <v>27818</v>
       </c>
       <c r="C61">
         <v>20514</v>
       </c>
       <c r="D61">
-        <v>17069</v>
+        <v>17070</v>
       </c>
       <c r="E61">
         <v>1547</v>
@@ -5389,10 +5392,10 @@
         <v>8539</v>
       </c>
       <c r="H61">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="I61">
-        <v>6385</v>
+        <v>6384</v>
       </c>
       <c r="J61">
         <v>4080</v>
@@ -5401,22 +5404,22 @@
         <v>2305</v>
       </c>
       <c r="L61">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="M61">
-        <v>11042</v>
+        <v>11046</v>
       </c>
       <c r="N61">
-        <v>9551</v>
+        <v>9555</v>
       </c>
       <c r="O61">
         <v>529</v>
       </c>
       <c r="P61">
-        <v>6085</v>
+        <v>6086</v>
       </c>
       <c r="Q61">
-        <v>2937</v>
+        <v>2940</v>
       </c>
       <c r="R61">
         <v>1490</v>
@@ -5440,7 +5443,7 @@
         <v>1371</v>
       </c>
       <c r="Y61">
-        <v>29682</v>
+        <v>29677</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5448,19 +5451,19 @@
         <v>82</v>
       </c>
       <c r="B62">
-        <v>28777</v>
+        <v>28776</v>
       </c>
       <c r="C62">
         <v>21102</v>
       </c>
       <c r="D62">
-        <v>17634</v>
+        <v>17633</v>
       </c>
       <c r="E62">
         <v>1631</v>
       </c>
       <c r="F62">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="G62">
         <v>8729</v>
@@ -5469,40 +5472,40 @@
         <v>3468</v>
       </c>
       <c r="I62">
-        <v>6903</v>
+        <v>6904</v>
       </c>
       <c r="J62">
-        <v>4156</v>
+        <v>4158</v>
       </c>
       <c r="K62">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="L62">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M62">
-        <v>11526</v>
+        <v>11525</v>
       </c>
       <c r="N62">
-        <v>9879</v>
+        <v>9878</v>
       </c>
       <c r="O62">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P62">
-        <v>6177</v>
+        <v>6178</v>
       </c>
       <c r="Q62">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="R62">
         <v>1647</v>
       </c>
       <c r="S62">
-        <v>10151</v>
+        <v>10152</v>
       </c>
       <c r="T62">
-        <v>8753</v>
+        <v>8754</v>
       </c>
       <c r="U62">
         <v>128</v>
@@ -5511,13 +5514,13 @@
         <v>1243</v>
       </c>
       <c r="W62">
-        <v>7381</v>
+        <v>7383</v>
       </c>
       <c r="X62">
         <v>1398</v>
       </c>
       <c r="Y62">
-        <v>30153</v>
+        <v>30148</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5525,7 +5528,7 @@
         <v>83</v>
       </c>
       <c r="B63">
-        <v>28924</v>
+        <v>28932</v>
       </c>
       <c r="C63">
         <v>21722</v>
@@ -5549,34 +5552,34 @@
         <v>6840</v>
       </c>
       <c r="J63">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="K63">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="L63">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M63">
-        <v>11443</v>
+        <v>11441</v>
       </c>
       <c r="N63">
-        <v>9800</v>
+        <v>9799</v>
       </c>
       <c r="O63">
         <v>596</v>
       </c>
       <c r="P63">
-        <v>6060</v>
+        <v>6061</v>
       </c>
       <c r="Q63">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="R63">
         <v>1642</v>
       </c>
       <c r="S63">
-        <v>10275</v>
+        <v>10274</v>
       </c>
       <c r="T63">
         <v>8740</v>
@@ -5588,13 +5591,13 @@
         <v>1367</v>
       </c>
       <c r="W63">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="X63">
         <v>1534</v>
       </c>
       <c r="Y63">
-        <v>30092</v>
+        <v>30099</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5602,19 +5605,19 @@
         <v>84</v>
       </c>
       <c r="B64">
-        <v>29751</v>
+        <v>29743</v>
       </c>
       <c r="C64">
-        <v>22339</v>
+        <v>22340</v>
       </c>
       <c r="D64">
-        <v>18611</v>
+        <v>18612</v>
       </c>
       <c r="E64">
         <v>1609</v>
       </c>
       <c r="F64">
-        <v>7801</v>
+        <v>7802</v>
       </c>
       <c r="G64">
         <v>9201</v>
@@ -5626,37 +5629,37 @@
         <v>6903</v>
       </c>
       <c r="J64">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="K64">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="L64">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M64">
-        <v>11102</v>
+        <v>11104</v>
       </c>
       <c r="N64">
-        <v>9469</v>
+        <v>9471</v>
       </c>
       <c r="O64">
         <v>593</v>
       </c>
       <c r="P64">
-        <v>5511</v>
+        <v>5512</v>
       </c>
       <c r="Q64">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="R64">
         <v>1633</v>
       </c>
       <c r="S64">
-        <v>10585</v>
+        <v>10584</v>
       </c>
       <c r="T64">
-        <v>9101</v>
+        <v>9100</v>
       </c>
       <c r="U64">
         <v>128</v>
@@ -5665,13 +5668,13 @@
         <v>1471</v>
       </c>
       <c r="W64">
-        <v>7503</v>
+        <v>7502</v>
       </c>
       <c r="X64">
         <v>1483</v>
       </c>
       <c r="Y64">
-        <v>30269</v>
+        <v>30263</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5679,7 +5682,7 @@
         <v>85</v>
       </c>
       <c r="B65">
-        <v>30352</v>
+        <v>30341</v>
       </c>
       <c r="C65">
         <v>22728</v>
@@ -5694,43 +5697,43 @@
         <v>7951</v>
       </c>
       <c r="G65">
-        <v>9371</v>
+        <v>9372</v>
       </c>
       <c r="H65">
         <v>3780</v>
       </c>
       <c r="I65">
-        <v>7529</v>
+        <v>7528</v>
       </c>
       <c r="J65">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="K65">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="L65">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M65">
-        <v>12038</v>
+        <v>12042</v>
       </c>
       <c r="N65">
-        <v>10247</v>
+        <v>10252</v>
       </c>
       <c r="O65">
         <v>647</v>
       </c>
       <c r="P65">
-        <v>6050</v>
+        <v>6051</v>
       </c>
       <c r="Q65">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="R65">
         <v>1791</v>
       </c>
       <c r="S65">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="T65">
         <v>9531</v>
@@ -5742,13 +5745,13 @@
         <v>1137</v>
       </c>
       <c r="W65">
-        <v>8239</v>
+        <v>8238</v>
       </c>
       <c r="X65">
         <v>1482</v>
       </c>
       <c r="Y65">
-        <v>31376</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5756,7 +5759,7 @@
         <v>86</v>
       </c>
       <c r="B66">
-        <v>31326</v>
+        <v>31322</v>
       </c>
       <c r="C66">
         <v>23230</v>
@@ -5768,7 +5771,7 @@
         <v>1744</v>
       </c>
       <c r="F66">
-        <v>8047</v>
+        <v>8046</v>
       </c>
       <c r="G66">
         <v>9663</v>
@@ -5777,40 +5780,40 @@
         <v>3776</v>
       </c>
       <c r="I66">
-        <v>7327</v>
+        <v>7328</v>
       </c>
       <c r="J66">
-        <v>4667</v>
+        <v>4670</v>
       </c>
       <c r="K66">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="L66">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="M66">
-        <v>11352</v>
+        <v>11351</v>
       </c>
       <c r="N66">
-        <v>9760</v>
+        <v>9759</v>
       </c>
       <c r="O66">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P66">
         <v>5712</v>
       </c>
       <c r="Q66">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="R66">
         <v>1592</v>
       </c>
       <c r="S66">
-        <v>10788</v>
+        <v>10789</v>
       </c>
       <c r="T66">
-        <v>9414</v>
+        <v>9415</v>
       </c>
       <c r="U66">
         <v>138</v>
@@ -5819,13 +5822,13 @@
         <v>1280</v>
       </c>
       <c r="W66">
-        <v>7996</v>
+        <v>7997</v>
       </c>
       <c r="X66">
         <v>1374</v>
       </c>
       <c r="Y66">
-        <v>31890</v>
+        <v>31884</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5833,19 +5836,19 @@
         <v>87</v>
       </c>
       <c r="B67">
-        <v>32019</v>
+        <v>32030</v>
       </c>
       <c r="C67">
-        <v>23716</v>
+        <v>23715</v>
       </c>
       <c r="D67">
-        <v>19872</v>
+        <v>19871</v>
       </c>
       <c r="E67">
         <v>1757</v>
       </c>
       <c r="F67">
-        <v>8306</v>
+        <v>8305</v>
       </c>
       <c r="G67">
         <v>9808</v>
@@ -5857,28 +5860,28 @@
         <v>7587</v>
       </c>
       <c r="J67">
-        <v>4806</v>
+        <v>4804</v>
       </c>
       <c r="K67">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="L67">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="M67">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="N67">
-        <v>9561</v>
+        <v>9559</v>
       </c>
       <c r="O67">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P67">
         <v>5541</v>
       </c>
       <c r="Q67">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="R67">
         <v>1654</v>
@@ -5887,7 +5890,7 @@
         <v>11078</v>
       </c>
       <c r="T67">
-        <v>9668</v>
+        <v>9669</v>
       </c>
       <c r="U67">
         <v>139</v>
@@ -5896,13 +5899,13 @@
         <v>1250</v>
       </c>
       <c r="W67">
-        <v>8279</v>
+        <v>8280</v>
       </c>
       <c r="X67">
         <v>1410</v>
       </c>
       <c r="Y67">
-        <v>32156</v>
+        <v>32164</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -5910,19 +5913,19 @@
         <v>88</v>
       </c>
       <c r="B68">
-        <v>33123</v>
+        <v>33115</v>
       </c>
       <c r="C68">
-        <v>24036</v>
+        <v>24037</v>
       </c>
       <c r="D68">
-        <v>20182</v>
+        <v>20183</v>
       </c>
       <c r="E68">
         <v>1843</v>
       </c>
       <c r="F68">
-        <v>8389</v>
+        <v>8390</v>
       </c>
       <c r="G68">
         <v>9950</v>
@@ -5934,37 +5937,37 @@
         <v>8454</v>
       </c>
       <c r="J68">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="K68">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="L68">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="M68">
-        <v>10380</v>
+        <v>10382</v>
       </c>
       <c r="N68">
-        <v>8817</v>
+        <v>8819</v>
       </c>
       <c r="O68">
         <v>607</v>
       </c>
       <c r="P68">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="Q68">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="R68">
         <v>1563</v>
       </c>
       <c r="S68">
-        <v>10997</v>
+        <v>10996</v>
       </c>
       <c r="T68">
-        <v>9604</v>
+        <v>9603</v>
       </c>
       <c r="U68">
         <v>155</v>
@@ -5973,13 +5976,13 @@
         <v>1133</v>
       </c>
       <c r="W68">
-        <v>8316</v>
+        <v>8315</v>
       </c>
       <c r="X68">
         <v>1393</v>
       </c>
       <c r="Y68">
-        <v>32507</v>
+        <v>32502</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -5987,13 +5990,13 @@
         <v>89</v>
       </c>
       <c r="B69">
-        <v>33539</v>
+        <v>33527</v>
       </c>
       <c r="C69">
         <v>24632</v>
       </c>
       <c r="D69">
-        <v>20610</v>
+        <v>20609</v>
       </c>
       <c r="E69">
         <v>1882</v>
@@ -6008,31 +6011,31 @@
         <v>4022</v>
       </c>
       <c r="I69">
-        <v>8845</v>
+        <v>8844</v>
       </c>
       <c r="J69">
         <v>5202</v>
       </c>
       <c r="K69">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="L69">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M69">
-        <v>11337</v>
+        <v>11341</v>
       </c>
       <c r="N69">
-        <v>9741</v>
+        <v>9745</v>
       </c>
       <c r="O69">
         <v>569</v>
       </c>
       <c r="P69">
-        <v>5998</v>
+        <v>5999</v>
       </c>
       <c r="Q69">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="R69">
         <v>1596</v>
@@ -6050,13 +6053,13 @@
         <v>1188</v>
       </c>
       <c r="W69">
-        <v>8721</v>
+        <v>8720</v>
       </c>
       <c r="X69">
         <v>1457</v>
       </c>
       <c r="Y69">
-        <v>33362</v>
+        <v>33354</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6064,19 +6067,19 @@
         <v>90</v>
       </c>
       <c r="B70">
-        <v>33645</v>
+        <v>33639</v>
       </c>
       <c r="C70">
-        <v>24923</v>
+        <v>24922</v>
       </c>
       <c r="D70">
-        <v>20939</v>
+        <v>20938</v>
       </c>
       <c r="E70">
         <v>1947</v>
       </c>
       <c r="F70">
-        <v>8568</v>
+        <v>8567</v>
       </c>
       <c r="G70">
         <v>10424</v>
@@ -6085,40 +6088,40 @@
         <v>3984</v>
       </c>
       <c r="I70">
-        <v>8485</v>
+        <v>8486</v>
       </c>
       <c r="J70">
-        <v>5183</v>
+        <v>5187</v>
       </c>
       <c r="K70">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="L70">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M70">
         <v>10353</v>
       </c>
       <c r="N70">
-        <v>8777</v>
+        <v>8780</v>
       </c>
       <c r="O70">
         <v>591</v>
       </c>
       <c r="P70">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="Q70">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="R70">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="S70">
-        <v>10725</v>
+        <v>10727</v>
       </c>
       <c r="T70">
-        <v>9327</v>
+        <v>9329</v>
       </c>
       <c r="U70">
         <v>153</v>
@@ -6127,13 +6130,13 @@
         <v>1183</v>
       </c>
       <c r="W70">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="X70">
         <v>1398</v>
       </c>
       <c r="Y70">
-        <v>33273</v>
+        <v>33265</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6141,19 +6144,19 @@
         <v>91</v>
       </c>
       <c r="B71">
-        <v>34293</v>
+        <v>34313</v>
       </c>
       <c r="C71">
-        <v>25544</v>
+        <v>25543</v>
       </c>
       <c r="D71">
-        <v>21357</v>
+        <v>21356</v>
       </c>
       <c r="E71">
         <v>1979</v>
       </c>
       <c r="F71">
-        <v>8818</v>
+        <v>8817</v>
       </c>
       <c r="G71">
         <v>10560</v>
@@ -6165,37 +6168,37 @@
         <v>8697</v>
       </c>
       <c r="J71">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="K71">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="L71">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M71">
-        <v>11081</v>
+        <v>11076</v>
       </c>
       <c r="N71">
-        <v>9499</v>
+        <v>9493</v>
       </c>
       <c r="O71">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P71">
         <v>5393</v>
       </c>
       <c r="Q71">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="R71">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="S71">
-        <v>11386</v>
+        <v>11387</v>
       </c>
       <c r="T71">
-        <v>9968</v>
+        <v>9970</v>
       </c>
       <c r="U71">
         <v>157</v>
@@ -6204,13 +6207,13 @@
         <v>1287</v>
       </c>
       <c r="W71">
-        <v>8524</v>
+        <v>8526</v>
       </c>
       <c r="X71">
         <v>1418</v>
       </c>
       <c r="Y71">
-        <v>33988</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -6218,43 +6221,43 @@
         <v>92</v>
       </c>
       <c r="B72">
-        <v>35026</v>
+        <v>35015</v>
       </c>
       <c r="C72">
-        <v>26127</v>
+        <v>26130</v>
       </c>
       <c r="D72">
-        <v>21793</v>
+        <v>21795</v>
       </c>
       <c r="E72">
         <v>2032</v>
       </c>
       <c r="F72">
-        <v>9056</v>
+        <v>9058</v>
       </c>
       <c r="G72">
         <v>10705</v>
       </c>
       <c r="H72">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="I72">
         <v>8678</v>
       </c>
       <c r="J72">
-        <v>5470</v>
+        <v>5468</v>
       </c>
       <c r="K72">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="L72">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M72">
         <v>11579</v>
       </c>
       <c r="N72">
-        <v>9928</v>
+        <v>9927</v>
       </c>
       <c r="O72">
         <v>714</v>
@@ -6263,16 +6266,16 @@
         <v>5829</v>
       </c>
       <c r="Q72">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="R72">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="S72">
-        <v>11578</v>
+        <v>11576</v>
       </c>
       <c r="T72">
-        <v>9995</v>
+        <v>9993</v>
       </c>
       <c r="U72">
         <v>149</v>
@@ -6281,13 +6284,13 @@
         <v>1183</v>
       </c>
       <c r="W72">
-        <v>8663</v>
+        <v>8661</v>
       </c>
       <c r="X72">
         <v>1583</v>
       </c>
       <c r="Y72">
-        <v>35026</v>
+        <v>35018</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6295,19 +6298,19 @@
         <v>93</v>
       </c>
       <c r="B73">
-        <v>35740</v>
+        <v>35727</v>
       </c>
       <c r="C73">
-        <v>26744</v>
+        <v>26743</v>
       </c>
       <c r="D73">
-        <v>22289</v>
+        <v>22288</v>
       </c>
       <c r="E73">
         <v>2058</v>
       </c>
       <c r="F73">
-        <v>9314</v>
+        <v>9313</v>
       </c>
       <c r="G73">
         <v>10917</v>
@@ -6316,40 +6319,40 @@
         <v>4455</v>
       </c>
       <c r="I73">
-        <v>8309</v>
+        <v>8308</v>
       </c>
       <c r="J73">
-        <v>5461</v>
+        <v>5462</v>
       </c>
       <c r="K73">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="L73">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="M73">
-        <v>11396</v>
+        <v>11399</v>
       </c>
       <c r="N73">
-        <v>9785</v>
+        <v>9789</v>
       </c>
       <c r="O73">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P73">
-        <v>5516</v>
+        <v>5515</v>
       </c>
       <c r="Q73">
-        <v>3597</v>
+        <v>3601</v>
       </c>
       <c r="R73">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="S73">
-        <v>11498</v>
+        <v>11497</v>
       </c>
       <c r="T73">
-        <v>9863</v>
+        <v>9862</v>
       </c>
       <c r="U73">
         <v>151</v>
@@ -6358,13 +6361,13 @@
         <v>1126</v>
       </c>
       <c r="W73">
-        <v>8586</v>
+        <v>8585</v>
       </c>
       <c r="X73">
         <v>1635</v>
       </c>
       <c r="Y73">
-        <v>35638</v>
+        <v>35629</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6372,61 +6375,61 @@
         <v>94</v>
       </c>
       <c r="B74">
-        <v>35761</v>
+        <v>35751</v>
       </c>
       <c r="C74">
-        <v>27347</v>
+        <v>27346</v>
       </c>
       <c r="D74">
-        <v>22695</v>
+        <v>22694</v>
       </c>
       <c r="E74">
         <v>2046</v>
       </c>
       <c r="F74">
-        <v>9581</v>
+        <v>9580</v>
       </c>
       <c r="G74">
         <v>11068</v>
       </c>
       <c r="H74">
-        <v>4652</v>
+        <v>4651</v>
       </c>
       <c r="I74">
-        <v>8788</v>
+        <v>8790</v>
       </c>
       <c r="J74">
-        <v>5520</v>
+        <v>5524</v>
       </c>
       <c r="K74">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="L74">
-        <v>-374</v>
+        <v>-384</v>
       </c>
       <c r="M74">
-        <v>12101</v>
+        <v>12104</v>
       </c>
       <c r="N74">
-        <v>10420</v>
+        <v>10425</v>
       </c>
       <c r="O74">
         <v>755</v>
       </c>
       <c r="P74">
-        <v>5888</v>
+        <v>5891</v>
       </c>
       <c r="Q74">
-        <v>3777</v>
+        <v>3779</v>
       </c>
       <c r="R74">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="S74">
-        <v>11904</v>
+        <v>11905</v>
       </c>
       <c r="T74">
-        <v>10303</v>
+        <v>10305</v>
       </c>
       <c r="U74">
         <v>156</v>
@@ -6441,7 +6444,7 @@
         <v>1600</v>
       </c>
       <c r="Y74">
-        <v>35958</v>
+        <v>35950</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6449,19 +6452,19 @@
         <v>95</v>
       </c>
       <c r="B75">
-        <v>36203</v>
+        <v>36231</v>
       </c>
       <c r="C75">
-        <v>27773</v>
+        <v>27772</v>
       </c>
       <c r="D75">
-        <v>23176</v>
+        <v>23175</v>
       </c>
       <c r="E75">
         <v>2062</v>
       </c>
       <c r="F75">
-        <v>9854</v>
+        <v>9853</v>
       </c>
       <c r="G75">
         <v>11260</v>
@@ -6470,55 +6473,55 @@
         <v>4597</v>
       </c>
       <c r="I75">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="J75">
-        <v>5558</v>
+        <v>5555</v>
       </c>
       <c r="K75">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="L75">
-        <v>-549</v>
+        <v>-518</v>
       </c>
       <c r="M75">
-        <v>12434</v>
+        <v>12428</v>
       </c>
       <c r="N75">
-        <v>10728</v>
+        <v>10721</v>
       </c>
       <c r="O75">
         <v>803</v>
       </c>
       <c r="P75">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="Q75">
-        <v>4188</v>
+        <v>4182</v>
       </c>
       <c r="R75">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="S75">
-        <v>11913</v>
+        <v>11915</v>
       </c>
       <c r="T75">
-        <v>10277</v>
+        <v>10279</v>
       </c>
       <c r="U75">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V75">
         <v>1413</v>
       </c>
       <c r="W75">
-        <v>8724</v>
+        <v>8726</v>
       </c>
       <c r="X75">
         <v>1636</v>
       </c>
       <c r="Y75">
-        <v>36724</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6526,61 +6529,61 @@
         <v>96</v>
       </c>
       <c r="B76">
-        <v>36961</v>
+        <v>36947</v>
       </c>
       <c r="C76">
-        <v>28257</v>
+        <v>28261</v>
       </c>
       <c r="D76">
-        <v>23601</v>
+        <v>23603</v>
       </c>
       <c r="E76">
         <v>2037</v>
       </c>
       <c r="F76">
-        <v>10063</v>
+        <v>10066</v>
       </c>
       <c r="G76">
         <v>11500</v>
       </c>
       <c r="H76">
-        <v>4656</v>
+        <v>4658</v>
       </c>
       <c r="I76">
         <v>8691</v>
       </c>
       <c r="J76">
-        <v>5571</v>
+        <v>5569</v>
       </c>
       <c r="K76">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="L76">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="M76">
-        <v>12209</v>
+        <v>12208</v>
       </c>
       <c r="N76">
-        <v>10741</v>
+        <v>10738</v>
       </c>
       <c r="O76">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P76">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="Q76">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="R76">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="S76">
-        <v>11688</v>
+        <v>11686</v>
       </c>
       <c r="T76">
-        <v>10249</v>
+        <v>10247</v>
       </c>
       <c r="U76">
         <v>172</v>
@@ -6589,13 +6592,13 @@
         <v>1351</v>
       </c>
       <c r="W76">
-        <v>8726</v>
+        <v>8724</v>
       </c>
       <c r="X76">
         <v>1439</v>
       </c>
       <c r="Y76">
-        <v>37482</v>
+        <v>37469</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6603,7 +6606,7 @@
         <v>97</v>
       </c>
       <c r="B77">
-        <v>38236</v>
+        <v>38221</v>
       </c>
       <c r="C77">
         <v>29275</v>
@@ -6627,37 +6630,37 @@
         <v>8963</v>
       </c>
       <c r="J77">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="K77">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="L77">
-        <v>-2</v>
+        <v>-17</v>
       </c>
       <c r="M77">
-        <v>12478</v>
+        <v>12481</v>
       </c>
       <c r="N77">
-        <v>10918</v>
+        <v>10922</v>
       </c>
       <c r="O77">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="P77">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="Q77">
-        <v>4409</v>
+        <v>4414</v>
       </c>
       <c r="R77">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="S77">
         <v>12287</v>
       </c>
       <c r="T77">
-        <v>10627</v>
+        <v>10626</v>
       </c>
       <c r="U77">
         <v>193</v>
@@ -6672,7 +6675,7 @@
         <v>1661</v>
       </c>
       <c r="Y77">
-        <v>38428</v>
+        <v>38415</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6680,76 +6683,76 @@
         <v>98</v>
       </c>
       <c r="B78">
-        <v>38541</v>
+        <v>38527</v>
       </c>
       <c r="C78">
-        <v>29709</v>
+        <v>29705</v>
       </c>
       <c r="D78">
-        <v>24582</v>
+        <v>24580</v>
       </c>
       <c r="E78">
         <v>2080</v>
       </c>
       <c r="F78">
-        <v>10467</v>
+        <v>10466</v>
       </c>
       <c r="G78">
         <v>12035</v>
       </c>
       <c r="H78">
-        <v>5128</v>
+        <v>5125</v>
       </c>
       <c r="I78">
         <v>9210</v>
       </c>
       <c r="J78">
-        <v>5856</v>
+        <v>5861</v>
       </c>
       <c r="K78">
-        <v>3354</v>
+        <v>3349</v>
       </c>
       <c r="L78">
-        <v>-379</v>
+        <v>-388</v>
       </c>
       <c r="M78">
-        <v>12075</v>
+        <v>12082</v>
       </c>
       <c r="N78">
-        <v>10546</v>
+        <v>10554</v>
       </c>
       <c r="O78">
         <v>826</v>
       </c>
       <c r="P78">
-        <v>5686</v>
+        <v>5690</v>
       </c>
       <c r="Q78">
-        <v>4034</v>
+        <v>4038</v>
       </c>
       <c r="R78">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="S78">
-        <v>11625</v>
+        <v>11628</v>
       </c>
       <c r="T78">
-        <v>10097</v>
+        <v>10100</v>
       </c>
       <c r="U78">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V78">
         <v>812</v>
       </c>
       <c r="W78">
-        <v>9094</v>
+        <v>9097</v>
       </c>
       <c r="X78">
         <v>1528</v>
       </c>
       <c r="Y78">
-        <v>38991</v>
+        <v>38981</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6757,76 +6760,76 @@
         <v>99</v>
       </c>
       <c r="B79">
-        <v>39383</v>
+        <v>39422</v>
       </c>
       <c r="C79">
         <v>30186</v>
       </c>
       <c r="D79">
-        <v>25081</v>
+        <v>25080</v>
       </c>
       <c r="E79">
         <v>2153</v>
       </c>
       <c r="F79">
-        <v>10609</v>
+        <v>10608</v>
       </c>
       <c r="G79">
         <v>12319</v>
       </c>
       <c r="H79">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="I79">
-        <v>9102</v>
+        <v>9100</v>
       </c>
       <c r="J79">
-        <v>5979</v>
+        <v>5974</v>
       </c>
       <c r="K79">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="L79">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="M79">
-        <v>11356</v>
+        <v>11348</v>
       </c>
       <c r="N79">
-        <v>9812</v>
+        <v>9803</v>
       </c>
       <c r="O79">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P79">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="Q79">
-        <v>3672</v>
+        <v>3665</v>
       </c>
       <c r="R79">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="S79">
-        <v>10914</v>
+        <v>10916</v>
       </c>
       <c r="T79">
-        <v>9379</v>
+        <v>9382</v>
       </c>
       <c r="U79">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V79">
         <v>869</v>
       </c>
       <c r="W79">
-        <v>8363</v>
+        <v>8366</v>
       </c>
       <c r="X79">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="Y79">
-        <v>39825</v>
+        <v>39853</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -6834,61 +6837,61 @@
         <v>100</v>
       </c>
       <c r="B80">
-        <v>40865</v>
+        <v>40840</v>
       </c>
       <c r="C80">
-        <v>30823</v>
+        <v>30831</v>
       </c>
       <c r="D80">
-        <v>25584</v>
+        <v>25586</v>
       </c>
       <c r="E80">
         <v>2190</v>
       </c>
       <c r="F80">
-        <v>10806</v>
+        <v>10808</v>
       </c>
       <c r="G80">
-        <v>12588</v>
+        <v>12589</v>
       </c>
       <c r="H80">
-        <v>5239</v>
+        <v>5245</v>
       </c>
       <c r="I80">
-        <v>9897</v>
+        <v>9898</v>
       </c>
       <c r="J80">
-        <v>6153</v>
+        <v>6152</v>
       </c>
       <c r="K80">
-        <v>3744</v>
+        <v>3746</v>
       </c>
       <c r="L80">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="M80">
-        <v>11651</v>
+        <v>11653</v>
       </c>
       <c r="N80">
-        <v>10030</v>
+        <v>10029</v>
       </c>
       <c r="O80">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P80">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="Q80">
         <v>4182</v>
       </c>
       <c r="R80">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="S80">
-        <v>12499</v>
+        <v>12493</v>
       </c>
       <c r="T80">
-        <v>10788</v>
+        <v>10782</v>
       </c>
       <c r="U80">
         <v>180</v>
@@ -6897,13 +6900,13 @@
         <v>784</v>
       </c>
       <c r="W80">
-        <v>9824</v>
+        <v>9819</v>
       </c>
       <c r="X80">
         <v>1711</v>
       </c>
       <c r="Y80">
-        <v>40017</v>
+        <v>39999</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -6911,55 +6914,55 @@
         <v>101</v>
       </c>
       <c r="B81">
-        <v>41063</v>
+        <v>41048</v>
       </c>
       <c r="C81">
-        <v>31234</v>
+        <v>31230</v>
       </c>
       <c r="D81">
-        <v>25973</v>
+        <v>25974</v>
       </c>
       <c r="E81">
         <v>2248</v>
       </c>
       <c r="F81">
-        <v>10970</v>
+        <v>10971</v>
       </c>
       <c r="G81">
-        <v>12755</v>
+        <v>12754</v>
       </c>
       <c r="H81">
-        <v>5260</v>
+        <v>5256</v>
       </c>
       <c r="I81">
         <v>9701</v>
       </c>
       <c r="J81">
-        <v>6133</v>
+        <v>6134</v>
       </c>
       <c r="K81">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="L81">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M81">
-        <v>11801</v>
+        <v>11800</v>
       </c>
       <c r="N81">
-        <v>10036</v>
+        <v>10039</v>
       </c>
       <c r="O81">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="P81">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="Q81">
-        <v>4112</v>
+        <v>4115</v>
       </c>
       <c r="R81">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="S81">
         <v>12184</v>
@@ -6968,7 +6971,7 @@
         <v>10439</v>
       </c>
       <c r="U81">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V81">
         <v>710</v>
@@ -6980,7 +6983,7 @@
         <v>1745</v>
       </c>
       <c r="Y81">
-        <v>40680</v>
+        <v>40664</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -6988,76 +6991,76 @@
         <v>102</v>
       </c>
       <c r="B82">
-        <v>41217</v>
+        <v>41207</v>
       </c>
       <c r="C82">
-        <v>32000</v>
+        <v>31991</v>
       </c>
       <c r="D82">
-        <v>26533</v>
+        <v>26531</v>
       </c>
       <c r="E82">
         <v>2346</v>
       </c>
       <c r="F82">
-        <v>11211</v>
+        <v>11208</v>
       </c>
       <c r="G82">
-        <v>12976</v>
+        <v>12977</v>
       </c>
       <c r="H82">
-        <v>5467</v>
+        <v>5460</v>
       </c>
       <c r="I82">
         <v>9843</v>
       </c>
       <c r="J82">
-        <v>6121</v>
+        <v>6128</v>
       </c>
       <c r="K82">
-        <v>3722</v>
+        <v>3715</v>
       </c>
       <c r="L82">
-        <v>-625</v>
+        <v>-627</v>
       </c>
       <c r="M82">
-        <v>12044</v>
+        <v>12055</v>
       </c>
       <c r="N82">
-        <v>10303</v>
+        <v>10316</v>
       </c>
       <c r="O82">
         <v>1001</v>
       </c>
       <c r="P82">
-        <v>5238</v>
+        <v>5244</v>
       </c>
       <c r="Q82">
-        <v>4064</v>
+        <v>4072</v>
       </c>
       <c r="R82">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="S82">
-        <v>11784</v>
+        <v>11793</v>
       </c>
       <c r="T82">
-        <v>10054</v>
+        <v>10064</v>
       </c>
       <c r="U82">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V82">
         <v>613</v>
       </c>
       <c r="W82">
-        <v>9302</v>
+        <v>9311</v>
       </c>
       <c r="X82">
         <v>1729</v>
       </c>
       <c r="Y82">
-        <v>41478</v>
+        <v>41469</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7065,64 +7068,64 @@
         <v>103</v>
       </c>
       <c r="B83">
-        <v>41524</v>
+        <v>41571</v>
       </c>
       <c r="C83">
-        <v>32376</v>
+        <v>32380</v>
       </c>
       <c r="D83">
-        <v>26609</v>
+        <v>26607</v>
       </c>
       <c r="E83">
         <v>2289</v>
       </c>
       <c r="F83">
-        <v>11176</v>
+        <v>11175</v>
       </c>
       <c r="G83">
         <v>13144</v>
       </c>
       <c r="H83">
-        <v>5767</v>
+        <v>5772</v>
       </c>
       <c r="I83">
-        <v>9770</v>
+        <v>9766</v>
       </c>
       <c r="J83">
-        <v>6203</v>
+        <v>6195</v>
       </c>
       <c r="K83">
-        <v>3566</v>
+        <v>3571</v>
       </c>
       <c r="L83">
-        <v>-621</v>
+        <v>-575</v>
       </c>
       <c r="M83">
-        <v>11537</v>
+        <v>11523</v>
       </c>
       <c r="N83">
-        <v>9958</v>
+        <v>9940</v>
       </c>
       <c r="O83">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P83">
-        <v>4901</v>
+        <v>4899</v>
       </c>
       <c r="Q83">
-        <v>4128</v>
+        <v>4113</v>
       </c>
       <c r="R83">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="S83">
         <v>11378</v>
       </c>
       <c r="T83">
-        <v>9802</v>
+        <v>9801</v>
       </c>
       <c r="U83">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V83">
         <v>767</v>
@@ -7134,7 +7137,7 @@
         <v>1577</v>
       </c>
       <c r="Y83">
-        <v>41682</v>
+        <v>41716</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -7142,76 +7145,76 @@
         <v>104</v>
       </c>
       <c r="B84">
-        <v>42924</v>
+        <v>42888</v>
       </c>
       <c r="C84">
-        <v>33131</v>
+        <v>33143</v>
       </c>
       <c r="D84">
-        <v>27042</v>
+        <v>27044</v>
       </c>
       <c r="E84">
         <v>2330</v>
       </c>
       <c r="F84">
-        <v>11354</v>
+        <v>11355</v>
       </c>
       <c r="G84">
-        <v>13358</v>
+        <v>13359</v>
       </c>
       <c r="H84">
-        <v>6089</v>
+        <v>6099</v>
       </c>
       <c r="I84">
-        <v>9531</v>
+        <v>9533</v>
       </c>
       <c r="J84">
-        <v>6281</v>
+        <v>6280</v>
       </c>
       <c r="K84">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="L84">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="M84">
-        <v>11609</v>
+        <v>11613</v>
       </c>
       <c r="N84">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="O84">
         <v>890</v>
       </c>
       <c r="P84">
-        <v>5087</v>
+        <v>5083</v>
       </c>
       <c r="Q84">
-        <v>4024</v>
+        <v>4027</v>
       </c>
       <c r="R84">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="S84">
-        <v>11774</v>
+        <v>11766</v>
       </c>
       <c r="T84">
-        <v>10086</v>
+        <v>10077</v>
       </c>
       <c r="U84">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V84">
         <v>764</v>
       </c>
       <c r="W84">
-        <v>9145</v>
+        <v>9136</v>
       </c>
       <c r="X84">
         <v>1689</v>
       </c>
       <c r="Y84">
-        <v>42760</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -7219,10 +7222,10 @@
         <v>105</v>
       </c>
       <c r="B85">
-        <v>42690</v>
+        <v>42672</v>
       </c>
       <c r="C85">
-        <v>33341</v>
+        <v>33334</v>
       </c>
       <c r="D85">
         <v>27302</v>
@@ -7231,43 +7234,43 @@
         <v>2380</v>
       </c>
       <c r="F85">
-        <v>11500</v>
+        <v>11503</v>
       </c>
       <c r="G85">
-        <v>13422</v>
+        <v>13420</v>
       </c>
       <c r="H85">
-        <v>6039</v>
+        <v>6031</v>
       </c>
       <c r="I85">
-        <v>9346</v>
+        <v>9348</v>
       </c>
       <c r="J85">
-        <v>6196</v>
+        <v>6198</v>
       </c>
       <c r="K85">
         <v>3150</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="M85">
         <v>12429</v>
       </c>
       <c r="N85">
-        <v>10715</v>
+        <v>10719</v>
       </c>
       <c r="O85">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="P85">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="Q85">
-        <v>4089</v>
+        <v>4093</v>
       </c>
       <c r="R85">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="S85">
         <v>11753</v>
@@ -7288,7 +7291,7 @@
         <v>1721</v>
       </c>
       <c r="Y85">
-        <v>43365</v>
+        <v>43347</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7296,76 +7299,76 @@
         <v>106</v>
       </c>
       <c r="B86">
-        <v>43541</v>
+        <v>43539</v>
       </c>
       <c r="C86">
-        <v>34268</v>
+        <v>34241</v>
       </c>
       <c r="D86">
-        <v>28119</v>
+        <v>28118</v>
       </c>
       <c r="E86">
         <v>2558</v>
       </c>
       <c r="F86">
-        <v>11842</v>
+        <v>11839</v>
       </c>
       <c r="G86">
-        <v>13718</v>
+        <v>13720</v>
       </c>
       <c r="H86">
-        <v>6149</v>
+        <v>6122</v>
       </c>
       <c r="I86">
-        <v>9519</v>
+        <v>9517</v>
       </c>
       <c r="J86">
-        <v>6053</v>
+        <v>6061</v>
       </c>
       <c r="K86">
-        <v>3466</v>
+        <v>3456</v>
       </c>
       <c r="L86">
-        <v>-246</v>
+        <v>-219</v>
       </c>
       <c r="M86">
-        <v>11839</v>
+        <v>11855</v>
       </c>
       <c r="N86">
-        <v>10148</v>
+        <v>10172</v>
       </c>
       <c r="O86">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P86">
-        <v>5144</v>
+        <v>5153</v>
       </c>
       <c r="Q86">
-        <v>4198</v>
+        <v>4214</v>
       </c>
       <c r="R86">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="S86">
-        <v>12256</v>
+        <v>12274</v>
       </c>
       <c r="T86">
-        <v>10506</v>
+        <v>10524</v>
       </c>
       <c r="U86">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V86">
         <v>928</v>
       </c>
       <c r="W86">
-        <v>9394</v>
+        <v>9410</v>
       </c>
       <c r="X86">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Y86">
-        <v>43125</v>
+        <v>43121</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7373,76 +7376,76 @@
         <v>107</v>
       </c>
       <c r="B87">
-        <v>44273</v>
+        <v>44326</v>
       </c>
       <c r="C87">
-        <v>34454</v>
+        <v>34478</v>
       </c>
       <c r="D87">
-        <v>28142</v>
+        <v>28139</v>
       </c>
       <c r="E87">
         <v>2490</v>
       </c>
       <c r="F87">
-        <v>11841</v>
+        <v>11839</v>
       </c>
       <c r="G87">
         <v>13811</v>
       </c>
       <c r="H87">
-        <v>6311</v>
+        <v>6338</v>
       </c>
       <c r="I87">
-        <v>9305</v>
+        <v>9302</v>
       </c>
       <c r="J87">
-        <v>5956</v>
+        <v>5946</v>
       </c>
       <c r="K87">
-        <v>3349</v>
+        <v>3357</v>
       </c>
       <c r="L87">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="M87">
-        <v>12456</v>
+        <v>12436</v>
       </c>
       <c r="N87">
-        <v>10875</v>
+        <v>10846</v>
       </c>
       <c r="O87">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="P87">
-        <v>5765</v>
+        <v>5760</v>
       </c>
       <c r="Q87">
-        <v>4167</v>
+        <v>4141</v>
       </c>
       <c r="R87">
-        <v>1581</v>
+        <v>1590</v>
       </c>
       <c r="S87">
-        <v>12287</v>
+        <v>12281</v>
       </c>
       <c r="T87">
-        <v>10633</v>
+        <v>10627</v>
       </c>
       <c r="U87">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V87">
         <v>942</v>
       </c>
       <c r="W87">
-        <v>9509</v>
+        <v>9504</v>
       </c>
       <c r="X87">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="Y87">
-        <v>44442</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -7450,13 +7453,13 @@
         <v>108</v>
       </c>
       <c r="B88">
-        <v>44526</v>
+        <v>44476</v>
       </c>
       <c r="C88">
-        <v>35092</v>
+        <v>35109</v>
       </c>
       <c r="D88">
-        <v>28617</v>
+        <v>28618</v>
       </c>
       <c r="E88">
         <v>2579</v>
@@ -7465,61 +7468,61 @@
         <v>12020</v>
       </c>
       <c r="G88">
-        <v>14018</v>
+        <v>14019</v>
       </c>
       <c r="H88">
-        <v>6475</v>
+        <v>6491</v>
       </c>
       <c r="I88">
-        <v>9363</v>
+        <v>9368</v>
       </c>
       <c r="J88">
-        <v>5993</v>
+        <v>5994</v>
       </c>
       <c r="K88">
-        <v>3370</v>
+        <v>3374</v>
       </c>
       <c r="L88">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>13350</v>
+        <v>13353</v>
       </c>
       <c r="N88">
-        <v>11720</v>
+        <v>11717</v>
       </c>
       <c r="O88">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="P88">
-        <v>6375</v>
+        <v>6368</v>
       </c>
       <c r="Q88">
-        <v>4281</v>
+        <v>4287</v>
       </c>
       <c r="R88">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="S88">
-        <v>11981</v>
+        <v>11969</v>
       </c>
       <c r="T88">
-        <v>10395</v>
+        <v>10383</v>
       </c>
       <c r="U88">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V88">
         <v>825</v>
       </c>
       <c r="W88">
-        <v>9378</v>
+        <v>9366</v>
       </c>
       <c r="X88">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="Y88">
-        <v>45896</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -7527,76 +7530,76 @@
         <v>109</v>
       </c>
       <c r="B89">
-        <v>45447</v>
+        <v>45428</v>
       </c>
       <c r="C89">
-        <v>35534</v>
+        <v>35520</v>
       </c>
       <c r="D89">
-        <v>29106</v>
+        <v>29108</v>
       </c>
       <c r="E89">
         <v>2572</v>
       </c>
       <c r="F89">
-        <v>12190</v>
+        <v>12196</v>
       </c>
       <c r="G89">
-        <v>14344</v>
+        <v>14340</v>
       </c>
       <c r="H89">
-        <v>6428</v>
+        <v>6412</v>
       </c>
       <c r="I89">
-        <v>9584</v>
+        <v>9585</v>
       </c>
       <c r="J89">
-        <v>6243</v>
+        <v>6245</v>
       </c>
       <c r="K89">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="L89">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M89">
         <v>13350</v>
       </c>
       <c r="N89">
-        <v>11735</v>
+        <v>11742</v>
       </c>
       <c r="O89">
         <v>933</v>
       </c>
       <c r="P89">
-        <v>6638</v>
+        <v>6640</v>
       </c>
       <c r="Q89">
-        <v>4165</v>
+        <v>4169</v>
       </c>
       <c r="R89">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="S89">
-        <v>12399</v>
+        <v>12400</v>
       </c>
       <c r="T89">
-        <v>10604</v>
+        <v>10605</v>
       </c>
       <c r="U89">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V89">
         <v>997</v>
       </c>
       <c r="W89">
-        <v>9419</v>
+        <v>9420</v>
       </c>
       <c r="X89">
         <v>1795</v>
       </c>
       <c r="Y89">
-        <v>46397</v>
+        <v>46377</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7604,76 +7607,76 @@
         <v>110</v>
       </c>
       <c r="B90">
-        <v>46251</v>
+        <v>46258</v>
       </c>
       <c r="C90">
-        <v>36608</v>
+        <v>36542</v>
       </c>
       <c r="D90">
-        <v>29807</v>
+        <v>29808</v>
       </c>
       <c r="E90">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="F90">
-        <v>12523</v>
+        <v>12520</v>
       </c>
       <c r="G90">
-        <v>14591</v>
+        <v>14595</v>
       </c>
       <c r="H90">
-        <v>6800</v>
+        <v>6734</v>
       </c>
       <c r="I90">
-        <v>9743</v>
+        <v>9738</v>
       </c>
       <c r="J90">
-        <v>6362</v>
+        <v>6371</v>
       </c>
       <c r="K90">
-        <v>3381</v>
+        <v>3367</v>
       </c>
       <c r="L90">
-        <v>-99</v>
+        <v>-22</v>
       </c>
       <c r="M90">
-        <v>13177</v>
+        <v>13204</v>
       </c>
       <c r="N90">
-        <v>11534</v>
+        <v>11580</v>
       </c>
       <c r="O90">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P90">
-        <v>6202</v>
+        <v>6220</v>
       </c>
       <c r="Q90">
-        <v>4378</v>
+        <v>4406</v>
       </c>
       <c r="R90">
-        <v>1643</v>
+        <v>1624</v>
       </c>
       <c r="S90">
-        <v>12489</v>
+        <v>12516</v>
       </c>
       <c r="T90">
-        <v>10833</v>
+        <v>10861</v>
       </c>
       <c r="U90">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V90">
         <v>975</v>
       </c>
       <c r="W90">
-        <v>9664</v>
+        <v>9690</v>
       </c>
       <c r="X90">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="Y90">
-        <v>46939</v>
+        <v>46946</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -7681,76 +7684,76 @@
         <v>111</v>
       </c>
       <c r="B91">
-        <v>47815</v>
+        <v>47873</v>
       </c>
       <c r="C91">
-        <v>37072</v>
+        <v>37141</v>
       </c>
       <c r="D91">
-        <v>30323</v>
+        <v>30316</v>
       </c>
       <c r="E91">
         <v>2673</v>
       </c>
       <c r="F91">
-        <v>12668</v>
+        <v>12663</v>
       </c>
       <c r="G91">
-        <v>14982</v>
+        <v>14981</v>
       </c>
       <c r="H91">
-        <v>6749</v>
+        <v>6825</v>
       </c>
       <c r="I91">
-        <v>9993</v>
+        <v>9992</v>
       </c>
       <c r="J91">
-        <v>6353</v>
+        <v>6340</v>
       </c>
       <c r="K91">
-        <v>3640</v>
+        <v>3652</v>
       </c>
       <c r="L91">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="M91">
-        <v>13438</v>
+        <v>13402</v>
       </c>
       <c r="N91">
-        <v>11861</v>
+        <v>11803</v>
       </c>
       <c r="O91">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="P91">
-        <v>6269</v>
+        <v>6249</v>
       </c>
       <c r="Q91">
-        <v>4562</v>
+        <v>4518</v>
       </c>
       <c r="R91">
-        <v>1577</v>
+        <v>1599</v>
       </c>
       <c r="S91">
-        <v>13548</v>
+        <v>13530</v>
       </c>
       <c r="T91">
-        <v>11883</v>
+        <v>11865</v>
       </c>
       <c r="U91">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V91">
         <v>1161</v>
       </c>
       <c r="W91">
-        <v>10486</v>
+        <v>10471</v>
       </c>
       <c r="X91">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="Y91">
-        <v>47705</v>
+        <v>47745</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -7758,76 +7761,76 @@
         <v>112</v>
       </c>
       <c r="B92">
-        <v>48212</v>
+        <v>48139</v>
       </c>
       <c r="C92">
-        <v>37456</v>
+        <v>37480</v>
       </c>
       <c r="D92">
-        <v>30647</v>
+        <v>30648</v>
       </c>
       <c r="E92">
         <v>2662</v>
       </c>
       <c r="F92">
-        <v>12705</v>
+        <v>12704</v>
       </c>
       <c r="G92">
-        <v>15280</v>
+        <v>15282</v>
       </c>
       <c r="H92">
-        <v>6809</v>
+        <v>6832</v>
       </c>
       <c r="I92">
-        <v>10362</v>
+        <v>10370</v>
       </c>
       <c r="J92">
-        <v>6457</v>
+        <v>6459</v>
       </c>
       <c r="K92">
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="L92">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="M92">
-        <v>13717</v>
+        <v>13730</v>
       </c>
       <c r="N92">
-        <v>12063</v>
+        <v>12070</v>
       </c>
       <c r="O92">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="P92">
-        <v>6178</v>
+        <v>6179</v>
       </c>
       <c r="Q92">
-        <v>4808</v>
+        <v>4817</v>
       </c>
       <c r="R92">
-        <v>1653</v>
+        <v>1660</v>
       </c>
       <c r="S92">
-        <v>14043</v>
+        <v>14030</v>
       </c>
       <c r="T92">
-        <v>12241</v>
+        <v>12227</v>
       </c>
       <c r="U92">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V92">
         <v>1119</v>
       </c>
       <c r="W92">
-        <v>10926</v>
+        <v>10913</v>
       </c>
       <c r="X92">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="Y92">
-        <v>47886</v>
+        <v>47839</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -7835,76 +7838,76 @@
         <v>113</v>
       </c>
       <c r="B93">
-        <v>49406</v>
+        <v>49398</v>
       </c>
       <c r="C93">
-        <v>37937</v>
+        <v>37910</v>
       </c>
       <c r="D93">
-        <v>30836</v>
+        <v>30841</v>
       </c>
       <c r="E93">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="F93">
-        <v>12842</v>
+        <v>12851</v>
       </c>
       <c r="G93">
-        <v>15317</v>
+        <v>15312</v>
       </c>
       <c r="H93">
-        <v>7100</v>
+        <v>7069</v>
       </c>
       <c r="I93">
         <v>10847</v>
       </c>
       <c r="J93">
-        <v>6778</v>
+        <v>6781</v>
       </c>
       <c r="K93">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="L93">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="M93">
-        <v>14051</v>
+        <v>14045</v>
       </c>
       <c r="N93">
-        <v>12353</v>
+        <v>12358</v>
       </c>
       <c r="O93">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="P93">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="Q93">
-        <v>4902</v>
+        <v>4909</v>
       </c>
       <c r="R93">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="S93">
-        <v>14906</v>
+        <v>14909</v>
       </c>
       <c r="T93">
-        <v>12869</v>
+        <v>12873</v>
       </c>
       <c r="U93">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V93">
         <v>1314</v>
       </c>
       <c r="W93">
-        <v>11320</v>
+        <v>11322</v>
       </c>
       <c r="X93">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="Y93">
-        <v>48551</v>
+        <v>48534</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -7912,76 +7915,76 @@
         <v>114</v>
       </c>
       <c r="B94">
-        <v>48683</v>
+        <v>48699</v>
       </c>
       <c r="C94">
-        <v>38135</v>
+        <v>38014</v>
       </c>
       <c r="D94">
-        <v>30859</v>
+        <v>30864</v>
       </c>
       <c r="E94">
         <v>2604</v>
       </c>
       <c r="F94">
-        <v>12763</v>
+        <v>12762</v>
       </c>
       <c r="G94">
-        <v>15491</v>
+        <v>15498</v>
       </c>
       <c r="H94">
-        <v>7276</v>
+        <v>7150</v>
       </c>
       <c r="I94">
-        <v>10852</v>
+        <v>10836</v>
       </c>
       <c r="J94">
-        <v>6909</v>
+        <v>6916</v>
       </c>
       <c r="K94">
-        <v>3943</v>
+        <v>3920</v>
       </c>
       <c r="L94">
-        <v>-304</v>
+        <v>-151</v>
       </c>
       <c r="M94">
-        <v>13618</v>
+        <v>13651</v>
       </c>
       <c r="N94">
-        <v>11935</v>
+        <v>12003</v>
       </c>
       <c r="O94">
         <v>1107</v>
       </c>
       <c r="P94">
-        <v>6079</v>
+        <v>6108</v>
       </c>
       <c r="Q94">
-        <v>4749</v>
+        <v>4788</v>
       </c>
       <c r="R94">
-        <v>1684</v>
+        <v>1648</v>
       </c>
       <c r="S94">
-        <v>13886</v>
+        <v>13922</v>
       </c>
       <c r="T94">
-        <v>12004</v>
+        <v>12042</v>
       </c>
       <c r="U94">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="V94">
         <v>1045</v>
       </c>
       <c r="W94">
-        <v>10720</v>
+        <v>10754</v>
       </c>
       <c r="X94">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="Y94">
-        <v>48415</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -7989,76 +7992,76 @@
         <v>115</v>
       </c>
       <c r="B95">
-        <v>49844</v>
+        <v>49903</v>
       </c>
       <c r="C95">
-        <v>38353</v>
+        <v>38495</v>
       </c>
       <c r="D95">
-        <v>31346</v>
+        <v>31331</v>
       </c>
       <c r="E95">
         <v>2596</v>
       </c>
       <c r="F95">
-        <v>13006</v>
+        <v>12995</v>
       </c>
       <c r="G95">
-        <v>15744</v>
+        <v>15740</v>
       </c>
       <c r="H95">
-        <v>7007</v>
+        <v>7164</v>
       </c>
       <c r="I95">
-        <v>11063</v>
+        <v>11070</v>
       </c>
       <c r="J95">
-        <v>7044</v>
+        <v>7030</v>
       </c>
       <c r="K95">
-        <v>4020</v>
+        <v>4040</v>
       </c>
       <c r="L95">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="M95">
-        <v>13430</v>
+        <v>13389</v>
       </c>
       <c r="N95">
-        <v>11787</v>
+        <v>11706</v>
       </c>
       <c r="O95">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="P95">
-        <v>6041</v>
+        <v>6005</v>
       </c>
       <c r="Q95">
-        <v>4617</v>
+        <v>4557</v>
       </c>
       <c r="R95">
-        <v>1643</v>
+        <v>1683</v>
       </c>
       <c r="S95">
-        <v>13973</v>
+        <v>13945</v>
       </c>
       <c r="T95">
-        <v>12138</v>
+        <v>12108</v>
       </c>
       <c r="U95">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="V95">
         <v>1303</v>
       </c>
       <c r="W95">
-        <v>10608</v>
+        <v>10583</v>
       </c>
       <c r="X95">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="Y95">
-        <v>49301</v>
+        <v>49347</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -8066,13 +8069,13 @@
         <v>116</v>
       </c>
       <c r="B96">
-        <v>50288</v>
+        <v>50186</v>
       </c>
       <c r="C96">
-        <v>38992</v>
+        <v>39027</v>
       </c>
       <c r="D96">
-        <v>31736</v>
+        <v>31737</v>
       </c>
       <c r="E96">
         <v>2594</v>
@@ -8081,61 +8084,61 @@
         <v>13156</v>
       </c>
       <c r="G96">
-        <v>15986</v>
+        <v>15987</v>
       </c>
       <c r="H96">
-        <v>7256</v>
+        <v>7290</v>
       </c>
       <c r="I96">
-        <v>11330</v>
+        <v>11343</v>
       </c>
       <c r="J96">
-        <v>7226</v>
+        <v>7232</v>
       </c>
       <c r="K96">
-        <v>4104</v>
+        <v>4111</v>
       </c>
       <c r="L96">
-        <v>-35</v>
+        <v>-183</v>
       </c>
       <c r="M96">
-        <v>13938</v>
+        <v>13966</v>
       </c>
       <c r="N96">
-        <v>12228</v>
+        <v>12246</v>
       </c>
       <c r="O96">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="P96">
-        <v>6392</v>
+        <v>6409</v>
       </c>
       <c r="Q96">
-        <v>4644</v>
+        <v>4654</v>
       </c>
       <c r="R96">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="S96">
-        <v>14287</v>
+        <v>14273</v>
       </c>
       <c r="T96">
-        <v>12342</v>
+        <v>12327</v>
       </c>
       <c r="U96">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="V96">
         <v>1210</v>
       </c>
       <c r="W96">
-        <v>10887</v>
+        <v>10873</v>
       </c>
       <c r="X96">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="Y96">
-        <v>49939</v>
+        <v>49880</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -8143,76 +8146,76 @@
         <v>117</v>
       </c>
       <c r="B97">
-        <v>49322</v>
+        <v>49331</v>
       </c>
       <c r="C97">
-        <v>37378</v>
+        <v>37320</v>
       </c>
       <c r="D97">
-        <v>30188</v>
+        <v>30195</v>
       </c>
       <c r="E97">
         <v>2343</v>
       </c>
       <c r="F97">
-        <v>12786</v>
+        <v>12798</v>
       </c>
       <c r="G97">
-        <v>15059</v>
+        <v>15054</v>
       </c>
       <c r="H97">
-        <v>7190</v>
+        <v>7125</v>
       </c>
       <c r="I97">
         <v>11733</v>
       </c>
       <c r="J97">
-        <v>7379</v>
+        <v>7382</v>
       </c>
       <c r="K97">
-        <v>4354</v>
+        <v>4350</v>
       </c>
       <c r="L97">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="M97">
-        <v>14038</v>
+        <v>14018</v>
       </c>
       <c r="N97">
-        <v>12353</v>
+        <v>12347</v>
       </c>
       <c r="O97">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="P97">
-        <v>6387</v>
+        <v>6379</v>
       </c>
       <c r="Q97">
-        <v>4678</v>
+        <v>4689</v>
       </c>
       <c r="R97">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="S97">
-        <v>14511</v>
+        <v>14518</v>
       </c>
       <c r="T97">
-        <v>12458</v>
+        <v>12466</v>
       </c>
       <c r="U97">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="V97">
         <v>1216</v>
       </c>
       <c r="W97">
-        <v>11000</v>
+        <v>11005</v>
       </c>
       <c r="X97">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="Y97">
-        <v>48848</v>
+        <v>48831</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -8220,76 +8223,76 @@
         <v>118</v>
       </c>
       <c r="B98">
-        <v>49771</v>
+        <v>49769</v>
       </c>
       <c r="C98">
-        <v>39088</v>
+        <v>38890</v>
       </c>
       <c r="D98">
-        <v>31136</v>
+        <v>31143</v>
       </c>
       <c r="E98">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F98">
-        <v>13403</v>
+        <v>13401</v>
       </c>
       <c r="G98">
-        <v>15408</v>
+        <v>15417</v>
       </c>
       <c r="H98">
-        <v>7952</v>
+        <v>7748</v>
       </c>
       <c r="I98">
-        <v>11639</v>
+        <v>11613</v>
       </c>
       <c r="J98">
-        <v>7587</v>
+        <v>7589</v>
       </c>
       <c r="K98">
-        <v>4052</v>
+        <v>4024</v>
       </c>
       <c r="L98">
-        <v>-956</v>
+        <v>-734</v>
       </c>
       <c r="M98">
-        <v>15083</v>
+        <v>15138</v>
       </c>
       <c r="N98">
-        <v>13405</v>
+        <v>13510</v>
       </c>
       <c r="O98">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="P98">
-        <v>7126</v>
+        <v>7176</v>
       </c>
       <c r="Q98">
-        <v>5056</v>
+        <v>5114</v>
       </c>
       <c r="R98">
-        <v>1678</v>
+        <v>1628</v>
       </c>
       <c r="S98">
-        <v>14313</v>
+        <v>14356</v>
       </c>
       <c r="T98">
-        <v>12422</v>
+        <v>12468</v>
       </c>
       <c r="U98">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="V98">
         <v>1268</v>
       </c>
       <c r="W98">
-        <v>10877</v>
+        <v>10918</v>
       </c>
       <c r="X98">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="Y98">
-        <v>50541</v>
+        <v>50551</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8297,76 +8300,76 @@
         <v>119</v>
       </c>
       <c r="B99">
-        <v>42655</v>
+        <v>42756</v>
       </c>
       <c r="C99">
-        <v>32551</v>
+        <v>32806</v>
       </c>
       <c r="D99">
-        <v>25033</v>
+        <v>25013</v>
       </c>
       <c r="E99">
         <v>1741</v>
       </c>
       <c r="F99">
-        <v>11327</v>
+        <v>11312</v>
       </c>
       <c r="G99">
-        <v>11965</v>
+        <v>11961</v>
       </c>
       <c r="H99">
-        <v>7518</v>
+        <v>7792</v>
       </c>
       <c r="I99">
-        <v>9486</v>
+        <v>9499</v>
       </c>
       <c r="J99">
-        <v>6031</v>
+        <v>6020</v>
       </c>
       <c r="K99">
-        <v>3455</v>
+        <v>3479</v>
       </c>
       <c r="L99">
-        <v>619</v>
+        <v>452</v>
       </c>
       <c r="M99">
-        <v>16258</v>
+        <v>16172</v>
       </c>
       <c r="N99">
-        <v>14950</v>
+        <v>14812</v>
       </c>
       <c r="O99">
-        <v>1182</v>
+        <v>1213</v>
       </c>
       <c r="P99">
-        <v>8018</v>
+        <v>7939</v>
       </c>
       <c r="Q99">
-        <v>5751</v>
+        <v>5660</v>
       </c>
       <c r="R99">
-        <v>1308</v>
+        <v>1360</v>
       </c>
       <c r="S99">
-        <v>12253</v>
+        <v>12210</v>
       </c>
       <c r="T99">
-        <v>10873</v>
+        <v>10828</v>
       </c>
       <c r="U99">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="V99">
         <v>678</v>
       </c>
       <c r="W99">
-        <v>9895</v>
+        <v>9860</v>
       </c>
       <c r="X99">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="Y99">
-        <v>46661</v>
+        <v>46719</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8374,76 +8377,76 @@
         <v>120</v>
       </c>
       <c r="B100">
-        <v>46769</v>
+        <v>46614</v>
       </c>
       <c r="C100">
-        <v>38021</v>
+        <v>38068</v>
       </c>
       <c r="D100">
-        <v>29777</v>
+        <v>29778</v>
       </c>
       <c r="E100">
         <v>3376</v>
       </c>
       <c r="F100">
-        <v>13391</v>
+        <v>13392</v>
       </c>
       <c r="G100">
-        <v>13011</v>
+        <v>13010</v>
       </c>
       <c r="H100">
-        <v>8245</v>
+        <v>8290</v>
       </c>
       <c r="I100">
-        <v>9854</v>
+        <v>9870</v>
       </c>
       <c r="J100">
-        <v>5596</v>
+        <v>5603</v>
       </c>
       <c r="K100">
-        <v>4258</v>
+        <v>4268</v>
       </c>
       <c r="L100">
-        <v>-1107</v>
+        <v>-1325</v>
       </c>
       <c r="M100">
-        <v>15590</v>
+        <v>15657</v>
       </c>
       <c r="N100">
-        <v>14526</v>
+        <v>14582</v>
       </c>
       <c r="O100">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="P100">
-        <v>8677</v>
+        <v>8732</v>
       </c>
       <c r="Q100">
-        <v>4583</v>
+        <v>4597</v>
       </c>
       <c r="R100">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="S100">
-        <v>12726</v>
+        <v>12711</v>
       </c>
       <c r="T100">
-        <v>11317</v>
+        <v>11301</v>
       </c>
       <c r="U100">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V100">
         <v>780</v>
       </c>
       <c r="W100">
-        <v>10210</v>
+        <v>10196</v>
       </c>
       <c r="X100">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="Y100">
-        <v>49634</v>
+        <v>49560</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -8451,76 +8454,76 @@
         <v>121</v>
       </c>
       <c r="B101">
-        <v>50474</v>
+        <v>50507</v>
       </c>
       <c r="C101">
-        <v>40575</v>
+        <v>40471</v>
       </c>
       <c r="D101">
-        <v>32482</v>
+        <v>32494</v>
       </c>
       <c r="E101">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="F101">
-        <v>14469</v>
+        <v>14484</v>
       </c>
       <c r="G101">
-        <v>14458</v>
+        <v>14454</v>
       </c>
       <c r="H101">
-        <v>8093</v>
+        <v>7977</v>
       </c>
       <c r="I101">
         <v>10877</v>
       </c>
       <c r="J101">
-        <v>6846</v>
+        <v>6851</v>
       </c>
       <c r="K101">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="L101">
-        <v>-978</v>
+        <v>-841</v>
       </c>
       <c r="M101">
-        <v>16148</v>
+        <v>16105</v>
       </c>
       <c r="N101">
-        <v>15008</v>
+        <v>14978</v>
       </c>
       <c r="O101">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="P101">
-        <v>8958</v>
+        <v>8926</v>
       </c>
       <c r="Q101">
-        <v>4687</v>
+        <v>4705</v>
       </c>
       <c r="R101">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="S101">
-        <v>13438</v>
+        <v>13452</v>
       </c>
       <c r="T101">
-        <v>12021</v>
+        <v>12036</v>
       </c>
       <c r="U101">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="V101">
         <v>878</v>
       </c>
       <c r="W101">
-        <v>10800</v>
+        <v>10809</v>
       </c>
       <c r="X101">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="Y101">
-        <v>53185</v>
+        <v>53160</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8528,76 +8531,153 @@
         <v>122</v>
       </c>
       <c r="B102">
-        <v>54771</v>
+        <v>54863</v>
       </c>
       <c r="C102">
-        <v>42632</v>
+        <v>42433</v>
       </c>
       <c r="D102">
-        <v>33894</v>
+        <v>33988</v>
       </c>
       <c r="E102">
-        <v>3748</v>
+        <v>3752</v>
       </c>
       <c r="F102">
-        <v>14818</v>
+        <v>14813</v>
       </c>
       <c r="G102">
-        <v>15327</v>
+        <v>15423</v>
       </c>
       <c r="H102">
-        <v>8737</v>
+        <v>8445</v>
       </c>
       <c r="I102">
-        <v>11723</v>
+        <v>11762</v>
       </c>
       <c r="J102">
-        <v>7102</v>
+        <v>7137</v>
       </c>
       <c r="K102">
-        <v>4622</v>
+        <v>4624</v>
       </c>
       <c r="L102">
-        <v>416</v>
+        <v>668</v>
       </c>
       <c r="M102">
-        <v>16888</v>
+        <v>17181</v>
       </c>
       <c r="N102">
-        <v>15714</v>
+        <v>16094</v>
       </c>
       <c r="O102">
-        <v>1188</v>
+        <v>1209</v>
       </c>
       <c r="P102">
-        <v>9971</v>
+        <v>10264</v>
       </c>
       <c r="Q102">
-        <v>4555</v>
+        <v>4621</v>
       </c>
       <c r="R102">
-        <v>1174</v>
+        <v>1087</v>
       </c>
       <c r="S102">
-        <v>15713</v>
+        <v>15840</v>
       </c>
       <c r="T102">
-        <v>14351</v>
+        <v>14438</v>
       </c>
       <c r="U102">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="V102">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="W102">
-        <v>12803</v>
+        <v>12874</v>
       </c>
       <c r="X102">
-        <v>1362</v>
+        <v>1402</v>
       </c>
       <c r="Y102">
-        <v>55946</v>
+        <v>56204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103">
+        <v>56929</v>
+      </c>
+      <c r="C103">
+        <v>43304</v>
+      </c>
+      <c r="D103">
+        <v>34858</v>
+      </c>
+      <c r="E103">
+        <v>4294</v>
+      </c>
+      <c r="F103">
+        <v>15135</v>
+      </c>
+      <c r="G103">
+        <v>15428</v>
+      </c>
+      <c r="H103">
+        <v>8446</v>
+      </c>
+      <c r="I103">
+        <v>11919</v>
+      </c>
+      <c r="J103">
+        <v>7214</v>
+      </c>
+      <c r="K103">
+        <v>4705</v>
+      </c>
+      <c r="L103">
+        <v>1707</v>
+      </c>
+      <c r="M103">
+        <v>17973</v>
+      </c>
+      <c r="N103">
+        <v>16760</v>
+      </c>
+      <c r="O103">
+        <v>1075</v>
+      </c>
+      <c r="P103">
+        <v>10662</v>
+      </c>
+      <c r="Q103">
+        <v>5024</v>
+      </c>
+      <c r="R103">
+        <v>1213</v>
+      </c>
+      <c r="S103">
+        <v>16424</v>
+      </c>
+      <c r="T103">
+        <v>15093</v>
+      </c>
+      <c r="U103">
+        <v>365</v>
+      </c>
+      <c r="V103">
+        <v>1384</v>
+      </c>
+      <c r="W103">
+        <v>13344</v>
+      </c>
+      <c r="X103">
+        <v>1331</v>
+      </c>
+      <c r="Y103">
+        <v>58478</v>
       </c>
     </row>
   </sheetData>
